--- a/src/store/xlsx/Spanish-2023-4-16.xlsx
+++ b/src/store/xlsx/Spanish-2023-4-16.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Level</t>
   </si>
@@ -118,87 +118,6 @@
     <t>198</t>
   </si>
   <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>Oscarlexande_pocarr</t>
-  </si>
-  <si>
-    <t>Apr 14</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>3575889032</t>
-  </si>
-  <si>
-    <t>oscarlexande</t>
-  </si>
-  <si>
-    <t>Big $3.30, $4K Gtd</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1282</t>
-  </si>
-  <si>
-    <t>0C</t>
-  </si>
-  <si>
-    <t>tomy_basket_pocarr</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>3575889053</t>
-  </si>
-  <si>
-    <t>tomy_basket</t>
-  </si>
-  <si>
-    <t>Big $4.40, $4K Gtd</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>3575889585</t>
-  </si>
-  <si>
-    <t>Bounty Builder $11, $50K Gtd</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>4071</t>
-  </si>
-  <si>
-    <t>17:05</t>
-  </si>
-  <si>
-    <t>3575890759</t>
-  </si>
-  <si>
-    <t>$5.50 NLHE [Deep Stacks], $1.5K Gtd</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
     <t>15A</t>
   </si>
   <si>
@@ -251,57 +170,6 @@
   </si>
   <si>
     <t>622</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>Santocx_pocarr</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>3575889659</t>
-  </si>
-  <si>
-    <t>Santocx</t>
-  </si>
-  <si>
-    <t>Bounty Builder $55, $30K Gtd</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>21:05</t>
-  </si>
-  <si>
-    <t>WPN</t>
-  </si>
-  <si>
-    <t>29492692</t>
-  </si>
-  <si>
-    <t>Turbo - $750 GTD</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>20:15</t>
-  </si>
-  <si>
-    <t>29492429</t>
-  </si>
-  <si>
-    <t>PKO Turbo - $1,000 GTD</t>
-  </si>
-  <si>
-    <t>103</t>
   </si>
 </sst>
 </file>
@@ -678,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -830,466 +698,137 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4407</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
+        <v>1000000</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4">
-        <v>62</v>
-      </c>
-      <c r="O4">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>1500000</v>
+      </c>
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="M5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>4708</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
       <c r="N5">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="O5">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>51871</v>
+        <v>1500000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N6">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>2038</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1000000</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
         <v>69</v>
       </c>
-      <c r="N8">
-        <v>77</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="O6">
         <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9">
-        <v>1500000</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9">
-        <v>72</v>
-      </c>
-      <c r="O9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1500000</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10">
-        <v>69</v>
-      </c>
-      <c r="O10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>33300</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11">
-        <v>72</v>
-      </c>
-      <c r="O11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>750</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12">
-        <v>69</v>
-      </c>
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1240</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13">
-        <v>68</v>
-      </c>
-      <c r="O13" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
